--- a/word_usage.xlsx
+++ b/word_usage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibm-my.sharepoint.com/personal/narendra_sg_ibm_com/Documents/SIH-2024/Other activities/Gen AI/RFP Word Scan Assistant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudeshkrishnamoorthy/Documents/IBM/2024/code/app-20241030081916964/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{61F5CB0D-B8CC-433F-BAF5-541E38F5F688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E0CC0A-AF44-4BDD-B46B-48B5728CC233}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F7C5F8-7E61-244F-9094-48DC6F1D12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{D31E8095-CC89-4307-88EE-6DADA68B598D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20460" xr2:uid="{D31E8095-CC89-4307-88EE-6DADA68B598D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="324">
   <si>
     <t>Word/Phrase</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Thorough; Extensive; Agreed</t>
   </si>
   <si>
-    <t>Cutting edge; Leading edge</t>
-  </si>
-  <si>
     <t>The implication of these terms is highly subjective and industry specific and should be avoided.</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>Current industry practices</t>
-  </si>
-  <si>
-    <t>Detail, detailed</t>
   </si>
   <si>
     <t>Usage of this word relies on a very subjective assessment of what is considered “detail”. The client’s expectations may vary vastly from IBM’s intention.</t>
@@ -262,9 +256,6 @@
     <t>List all items, otherwise the client can assume that items not stated specifically will be included.</t>
   </si>
   <si>
-    <t>Expert, Expertise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Since the level of knowledge necessary to be considered “expert” is highly subjective, we should avoid setting the wrong client expectations. </t>
   </si>
   <si>
@@ -358,18 +349,12 @@
     <t>By assigning very experienced staff, IBM can guarantee that the project will be delivered on time</t>
   </si>
   <si>
-    <t>Highest; Highest return</t>
-  </si>
-  <si>
     <t>With the completion of this project the client will reap the highest return on investment ….</t>
   </si>
   <si>
     <t>Appropriate return; High return</t>
   </si>
   <si>
-    <t>Implement; Implementation</t>
-  </si>
-  <si>
     <t>IBM must not operate without client involvement. Hence, we do not select, implement, nor make decisions for our clients, but ‘help’ or ‘assist’ clients in these tasks</t>
   </si>
   <si>
@@ -499,9 +484,6 @@
     <t>IBM offers the lowest billing rates in the consulting industry</t>
   </si>
   <si>
-    <t>Maximum; Maximize</t>
-  </si>
-  <si>
     <t>These words imply that it is impossible to deliver anything better and establishes an unrealistic expectation that cannot be met by IBM</t>
   </si>
   <si>
@@ -512,9 +494,6 @@
   </si>
   <si>
     <t>Our proven methodology will enable this project to meet all of your needs</t>
-  </si>
-  <si>
-    <t>Minimum; Minimize</t>
   </si>
   <si>
     <t>These words imply that it is impossible to deliver anything lower and establishes an unrealistic expectation that cannot be met by IBM</t>
@@ -567,9 +546,6 @@
     <t>this includes:</t>
   </si>
   <si>
-    <t>But not limited to; Including but not limited to; Includes but not limited to</t>
-  </si>
-  <si>
     <t>When describing duties of client that may not be able to be prescribed completely, such as Client will provide technical environment including but not limited to desktops, printers, network connectivity and servers.</t>
   </si>
   <si>
@@ -613,9 +589,6 @@
   </si>
   <si>
     <t>IBM will develop an optimum solution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partner; Partner with you; Partnership; </t>
   </si>
   <si>
     <t>Partner and partnership imply a formal business relationship that may not be in existence between IBM and a specific client.</t>
@@ -933,12 +906,6 @@
     <t>Applicable professional and technical standards</t>
   </si>
   <si>
-    <t>A-Team (also best team)</t>
-  </si>
-  <si>
-    <t>Any (also includes Every and None)</t>
-  </si>
-  <si>
     <t>Will document all problems.Will resolve all issues before go-live.</t>
   </si>
   <si>
@@ -999,9 +966,6 @@
     <t>This word can imply an assurance of accuracy and thoroughness, which establishes unrealistic client expectations. It also may imply that IBM is making a decision for the client.</t>
   </si>
   <si>
-    <t>Ensure or Insure</t>
-  </si>
-  <si>
     <t>Can be appropriate where it refers to client activities. e.g.  The client will ensure that PeopleSoft licenses are signed before the project starts</t>
   </si>
   <si>
@@ -1048,9 +1012,6 @@
   </si>
   <si>
     <t>The proposed approach will help to meet the mutually agreed benefits. IBM will assist you in meeting the defined benefits.</t>
-  </si>
-  <si>
-    <t>Meet all your needs; Meet future needs</t>
   </si>
   <si>
     <t>Help to meet your needs; Will assist in meeting the defined requirements (or project objectives); In accordance with our agreement</t>
@@ -1130,6 +1091,90 @@
   </si>
   <si>
     <t>Joe Smith is a specialist Java developer. IBM will provide bankruptcy specialists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any </t>
+  </si>
+  <si>
+    <t>Every</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Best team</t>
+  </si>
+  <si>
+    <t>A-Team</t>
+  </si>
+  <si>
+    <t>Leading edge</t>
+  </si>
+  <si>
+    <t>Cutting edge</t>
+  </si>
+  <si>
+    <t>Detailed</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Ensure</t>
+  </si>
+  <si>
+    <t>Insure</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Highest return</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Meet all your needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minimize</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>But not limited to</t>
+  </si>
+  <si>
+    <t>Including but not limited to</t>
+  </si>
+  <si>
+    <t>Includes but not limited to</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partner with you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partnership </t>
   </si>
 </sst>
 </file>
@@ -1265,9 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1282,6 +1324,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,23 +1662,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4932BFC3-4544-4558-B14D-5B99A23D0A61}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67:D69"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="51.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="51.77734375" style="3"/>
-    <col min="4" max="4" width="54.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="74.88671875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="51.77734375" style="3"/>
+    <col min="2" max="3" width="51.83203125" style="3"/>
+    <col min="4" max="4" width="54.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="74.83203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="51.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,9 +1695,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1667,1323 +1712,1634 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D67" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="11"/>
+      <c r="B89" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
+      <c r="B92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
+      <c r="B96" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+    </row>
+    <row r="97" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
+      <c r="B99" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+    </row>
+    <row r="100" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="C101" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
+      <c r="B102" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+    </row>
+    <row r="103" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D105" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="D106" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E80" s="6" t="s">
+    </row>
+    <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B107" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C107" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="D107" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E82" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>259</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
+  <mergeCells count="81">
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
     <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
     <mergeCell ref="C74:C75"/>
     <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E98:E99"/>
     <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
